--- a/Team-Data/2008-09/3-3-2008-09.xlsx
+++ b/Team-Data/2008-09/3-3-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>16</v>
@@ -795,16 +862,16 @@
         <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
@@ -908,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23.3</v>
@@ -920,16 +987,16 @@
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,22 +1023,22 @@
         <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
         <v>8</v>
@@ -980,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.426</v>
+        <v>0.417</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,28 +1115,28 @@
         <v>34.5</v>
       </c>
       <c r="J4" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O4" t="n">
         <v>17.8</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.739</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
@@ -1084,7 +1151,7 @@
         <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1096,22 +1163,22 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
         <v>92.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1150,16 +1217,16 @@
         <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1282,25 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.433</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
@@ -1242,16 +1309,16 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
@@ -1263,13 +1330,13 @@
         <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
         <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
@@ -1281,28 +1348,28 @@
         <v>21.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
         <v>14</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1341,31 +1408,31 @@
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
         <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.797</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O6" t="n">
         <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
@@ -1448,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
@@ -1460,19 +1527,19 @@
         <v>4.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1499,22 +1566,22 @@
         <v>3</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>22</v>
       </c>
-      <c r="AP6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>21</v>
-      </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,25 +1593,25 @@
         <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1678,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1699,13 +1766,13 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
         <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1717,13 +1784,13 @@
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
         <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.639</v>
+        <v>0.65</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1779,70 +1846,70 @@
         <v>78.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.362</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z8" t="n">
         <v>22.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
@@ -1851,7 +1918,7 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,34 +1942,34 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
         <v>3</v>
       </c>
       <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>25</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
         <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,7 +2025,7 @@
         <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>0.454</v>
@@ -1967,28 +2034,28 @@
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O9" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R9" t="n">
         <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U9" t="n">
         <v>20.2</v>
@@ -1997,10 +2064,10 @@
         <v>11.9</v>
       </c>
       <c r="W9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
         <v>3.9</v>
@@ -2009,16 +2076,16 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2030,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>24</v>
@@ -2054,16 +2121,16 @@
         <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>18</v>
       </c>
       <c r="AS9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
@@ -2087,10 +2154,10 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
@@ -2140,7 +2207,7 @@
         <v>39.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.459</v>
@@ -2152,31 +2219,31 @@
         <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="P10" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="R10" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U10" t="n">
         <v>20.8</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>8.199999999999999</v>
@@ -2188,31 +2255,31 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.3</v>
+        <v>108.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.1</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2224,13 +2291,13 @@
         <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
         <v>9</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.639</v>
+        <v>0.633</v>
       </c>
       <c r="H11" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J11" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L11" t="n">
         <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N11" t="n">
         <v>0.379</v>
       </c>
       <c r="O11" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P11" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R11" t="n">
         <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V11" t="n">
         <v>14.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X11" t="n">
         <v>3.9</v>
@@ -2370,52 +2437,52 @@
         <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
         <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,13 +2500,13 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2553,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
         <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.429</v>
+        <v>0.419</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J12" t="n">
         <v>86.3</v>
@@ -2510,13 +2577,13 @@
         <v>0.45</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M12" t="n">
         <v>21.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
@@ -2525,28 +2592,28 @@
         <v>23.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R12" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
         <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
         <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
@@ -2558,16 +2625,16 @@
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2585,16 +2652,16 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2621,10 +2688,10 @@
         <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2761,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2782,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
@@ -2791,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2803,7 +2870,7 @@
         <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2935,7 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,10 +2944,10 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.366</v>
       </c>
       <c r="O14" t="n">
         <v>20.6</v>
@@ -2889,55 +2956,55 @@
         <v>26.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
         <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,10 +3055,10 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>15</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="n">
-        <v>0.254</v>
+        <v>0.259</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,7 +3117,7 @@
         <v>34.7</v>
       </c>
       <c r="J15" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.448</v>
@@ -3062,16 +3129,16 @@
         <v>13.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="O15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
         <v>10.6</v>
@@ -3080,37 +3147,37 @@
         <v>28.7</v>
       </c>
       <c r="T15" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="U15" t="n">
         <v>16.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA15" t="n">
         <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,10 +3198,10 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
@@ -3143,22 +3210,22 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3167,22 +3234,22 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -3414,46 +3481,46 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O17" t="n">
         <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,7 +3529,7 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
         <v>23.1</v>
@@ -3471,13 +3538,13 @@
         <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3504,31 +3571,31 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L18" t="n">
         <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P18" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W18" t="n">
         <v>6.6</v>
@@ -3644,19 +3711,19 @@
         <v>6.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AA18" t="n">
         <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.7</v>
+        <v>-4.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3677,7 +3744,7 @@
         <v>5</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>20</v>
@@ -3686,13 +3753,13 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
@@ -3701,13 +3768,13 @@
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT18" t="n">
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
         <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>0.45</v>
+        <v>0.441</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3787,25 +3854,25 @@
         <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O19" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P19" t="n">
         <v>24.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R19" t="n">
         <v>11</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T19" t="n">
         <v>40.5</v>
@@ -3817,10 +3884,10 @@
         <v>13.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y19" t="n">
         <v>5</v>
@@ -3832,22 +3899,22 @@
         <v>20.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3859,25 +3926,25 @@
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
         <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
@@ -3895,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3904,10 +3971,10 @@
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4029,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -4253,13 +4320,13 @@
         <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,16 +4463,16 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4414,16 +4481,16 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4435,16 +4502,16 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4509,28 +4576,28 @@
         <v>78.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>10.4</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N23" t="n">
         <v>0.392</v>
       </c>
       <c r="O23" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P23" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
         <v>32.9</v>
@@ -4539,13 +4606,13 @@
         <v>42.9</v>
       </c>
       <c r="U23" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
         <v>5.3</v>
@@ -4560,13 +4627,13 @@
         <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,10 +4648,10 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4596,19 +4663,19 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4620,10 +4687,10 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
@@ -4760,7 +4827,7 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>18</v>
@@ -4781,16 +4848,16 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
         <v>18</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="n">
         <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,46 +4937,46 @@
         <v>39.9</v>
       </c>
       <c r="J25" t="n">
-        <v>79.7</v>
+        <v>79.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.501</v>
+        <v>0.502</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="O25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P25" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q25" t="n">
         <v>0.76</v>
       </c>
       <c r="R25" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
         <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
         <v>22.6</v>
       </c>
       <c r="V25" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4918,19 +4985,19 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB25" t="n">
-        <v>107</v>
+        <v>107.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4966,7 +5033,7 @@
         <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="n">
         <v>37</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.638</v>
+        <v>0.627</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
@@ -5082,7 +5149,7 @@
         <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
@@ -5094,46 +5161,46 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5145,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5160,19 +5227,19 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5184,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>0.21</v>
+        <v>0.213</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5246,25 +5313,25 @@
         <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q27" t="n">
         <v>0.802</v>
       </c>
       <c r="R27" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T27" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
@@ -5288,13 +5355,13 @@
         <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>-9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,16 +5373,16 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>15</v>
@@ -5330,16 +5397,16 @@
         <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5348,16 +5415,16 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5497,10 +5564,10 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>79.7</v>
+        <v>79.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.83</v>
@@ -5628,19 +5695,19 @@
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="U29" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>6.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
@@ -5649,16 +5716,16 @@
         <v>19.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB29" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5676,7 +5743,7 @@
         <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>13</v>
@@ -5694,7 +5761,7 @@
         <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,16 +5770,16 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5727,13 +5794,13 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>3.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5879,16 +5946,16 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5897,16 +5964,16 @@
         <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-3-2008-09</t>
+          <t>2009-03-03</t>
         </is>
       </c>
     </row>
